--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2853.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2853.xlsx
@@ -354,7 +354,7 @@
         <v>2.196544744549043</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.3658656485217</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2853.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2853.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176083745798316</v>
+        <v>1.335339188575745</v>
       </c>
       <c r="B1">
-        <v>2.196544744549043</v>
+        <v>1.59981906414032</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.048702239990234</v>
       </c>
       <c r="D1">
-        <v>2.3658656485217</v>
+        <v>3.23529314994812</v>
       </c>
       <c r="E1">
-        <v>1.22480777168173</v>
+        <v>1.102744460105896</v>
       </c>
     </row>
   </sheetData>
